--- a/data/revenue/input/NameClients.xlsx
+++ b/data/revenue/input/NameClients.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+  <si>
+    <t>Number</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -488,7 +491,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -498,6 +501,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -532,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -587,6 +595,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -617,6 +638,17 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -630,44 +662,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,6 +745,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -707,10 +762,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -887,11 +942,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -900,7 +958,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -914,19 +972,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1165,12 +1223,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1451,7 +1509,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1719,16 +1777,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.7" customHeight="1">
@@ -1738,2052 +1794,2526 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="5">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="9">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11">
         <v>194.672535234312</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="9">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
         <v>364.518785501976</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="9">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11">
         <v>481.651672179245</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" s="9">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
         <v>358.853985471402</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" s="9">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11">
         <v>241.742667909586</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="9">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11">
         <v>574.028392345698</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" s="9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11">
         <v>495.934940944462</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="9">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11">
         <v>180.983480880672</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="9">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
         <v>505.575974379180</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" ht="44.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="9">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11">
         <v>174.940223264444</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" ht="44.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="9">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C13" s="11">
         <v>139.614490379720</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" ht="44.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="A14" s="9">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11">
         <v>329.361482631535</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" s="9">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11">
         <v>208.825768583513</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="A16" s="9">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11">
         <v>607.926811127866</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="A17" s="9">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11">
         <v>506.359799609153</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="32.05" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="A18" s="9">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11">
         <v>340.848174912707</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="A19" s="9">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="C19" s="11">
         <v>357.400415851759</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" ht="32.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="A20" s="9">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="C20" s="11">
         <v>312.960120034728</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="A21" s="9">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="C21" s="11">
         <v>160.381387088018</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="A22" s="9">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="C22" s="11">
         <v>569.618791547798</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="A23" s="9">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="C23" s="11">
         <v>208.688005784337</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="A24" s="9">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11">
         <v>376.935730321670</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="A25" s="9">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C25" s="11">
         <v>168.635675913005</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="A26" s="9">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="C26" s="11">
         <v>323.263876709261</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" ht="32.05" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9">
+      <c r="A27" s="9">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="C27" s="11">
         <v>439.880053513597</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" ht="32.05" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="A28" s="9">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="C28" s="11">
         <v>316.380622617809</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" ht="32.05" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="A29" s="9">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="C29" s="11">
         <v>135.104606650971</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" ht="32.05" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="A30" s="9">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="C30" s="11">
         <v>260.6562025099</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" ht="32.05" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="A31" s="9">
+        <v>373</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C31" s="11">
         <v>183.207893891519</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="A32" s="9">
+        <v>377</v>
+      </c>
+      <c r="B32" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="C32" s="11">
         <v>465.478437895367</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="A33" s="9">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="C33" s="11">
         <v>509.375321644767</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9">
+      <c r="A34" s="9">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="C34" s="11">
         <v>342.701268867980</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" ht="32.05" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9">
+      <c r="A35" s="9">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="C35" s="11">
         <v>374.524153719544</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" ht="32.05" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="A36" s="9">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C36" s="11">
         <v>291.896842956392</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" ht="32.05" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9">
+      <c r="A37" s="9">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C37" s="11">
         <v>340.265198046085</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="A38" s="9">
+        <v>385</v>
+      </c>
+      <c r="B38" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="C38" s="11">
         <v>349.461140286095</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" ht="32.05" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9">
+      <c r="A39" s="9">
+        <v>386</v>
+      </c>
+      <c r="B39" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="C39" s="11">
         <v>349.304682982832</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9">
+      <c r="A40" s="9">
+        <v>387</v>
+      </c>
+      <c r="B40" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="C40" s="11">
         <v>435.425199493204</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="A41" s="9">
+        <v>388</v>
+      </c>
+      <c r="B41" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="C41" s="11">
         <v>449.845794207560</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" ht="32.05" customHeight="1">
-      <c r="A42" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9">
+      <c r="A42" s="9">
+        <v>389</v>
+      </c>
+      <c r="B42" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="C42" s="11">
         <v>485.820074835885</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" ht="32.05" customHeight="1">
-      <c r="A43" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9">
+      <c r="A43" s="9">
+        <v>390</v>
+      </c>
+      <c r="B43" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="C43" s="11">
         <v>155.668754813029</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9">
+      <c r="A44" s="9">
+        <v>391</v>
+      </c>
+      <c r="B44" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="C44" s="11">
         <v>424.296740045317</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9">
+      <c r="A45" s="9">
+        <v>405</v>
+      </c>
+      <c r="B45" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C45" s="11">
         <v>534.600331485595</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9">
+      <c r="A46" s="9">
+        <v>416</v>
+      </c>
+      <c r="B46" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="C46" s="11">
         <v>325.339136595485</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" ht="32.05" customHeight="1">
-      <c r="A47" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9">
+      <c r="A47" s="9">
+        <v>418</v>
+      </c>
+      <c r="B47" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="C47" s="11">
         <v>155.402822563872</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9">
+      <c r="A48" s="9">
+        <v>419</v>
+      </c>
+      <c r="B48" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="C48" s="11">
         <v>312.509447700736</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" ht="32.05" customHeight="1">
-      <c r="A49" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="9">
+      <c r="A49" s="9">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="C49" s="11">
         <v>540.976592736353</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="B50" s="9">
+      <c r="A50" s="9">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="C50" s="11">
         <v>238.789319792209</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" ht="32.05" customHeight="1">
-      <c r="A51" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9">
+      <c r="A51" s="9">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="C51" s="11">
         <v>470.041742275521</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" ht="32.05" customHeight="1">
-      <c r="A52" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="B52" s="9">
+      <c r="A52" s="9">
+        <v>181</v>
+      </c>
+      <c r="B52" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="C52" s="11">
         <v>159.832897432075</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" ht="32.05" customHeight="1">
-      <c r="A53" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="B53" s="9">
+      <c r="A53" s="9">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C53" s="11">
         <v>254.940653355788</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" ht="32.05" customHeight="1">
-      <c r="A54" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="B54" s="9">
+      <c r="A54" s="9">
+        <v>206</v>
+      </c>
+      <c r="B54" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C54" s="11">
         <v>181.142479793605</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" ht="32.05" customHeight="1">
-      <c r="A55" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="B55" s="9">
+      <c r="A55" s="9">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="C55" s="11">
         <v>385.078881186888</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" ht="32.05" customHeight="1">
-      <c r="A56" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="B56" s="9">
+      <c r="A56" s="9">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="C56" s="11">
         <v>330.364886874321</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" ht="44.05" customHeight="1">
-      <c r="A57" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="B57" s="9">
+      <c r="A57" s="9">
+        <v>187</v>
+      </c>
+      <c r="B57" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="C57" s="11">
         <v>523.862953702669</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" ht="32.05" customHeight="1">
-      <c r="A58" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="B58" s="9">
+      <c r="A58" s="9">
+        <v>438</v>
+      </c>
+      <c r="B58" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="C58" s="11">
         <v>458.007175268966</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" ht="32.05" customHeight="1">
-      <c r="A59" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="B59" s="9">
+      <c r="A59" s="9">
+        <v>440</v>
+      </c>
+      <c r="B59" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="C59" s="11">
         <v>153.490784981090</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="B60" s="9">
+      <c r="A60" s="9">
+        <v>212</v>
+      </c>
+      <c r="B60" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="C60" s="11">
         <v>577.992696947553</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="B61" s="9">
+      <c r="A61" s="9">
+        <v>213</v>
+      </c>
+      <c r="B61" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="C61" s="11">
         <v>222.258992678516</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" ht="32.05" customHeight="1">
-      <c r="A62" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="B62" s="9">
+      <c r="A62" s="9">
+        <v>215</v>
+      </c>
+      <c r="B62" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="C62" s="11">
         <v>181.046872734221</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="B63" s="9">
+      <c r="A63" s="9">
+        <v>218</v>
+      </c>
+      <c r="B63" t="s" s="10">
+        <v>61</v>
+      </c>
+      <c r="C63" s="11">
         <v>237.972021005554</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="B64" s="9">
+      <c r="A64" s="9">
+        <v>219</v>
+      </c>
+      <c r="B64" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="C64" s="11">
         <v>364.381268694034</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" ht="32.05" customHeight="1">
-      <c r="A65" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="B65" s="9">
+      <c r="A65" s="9">
+        <v>450</v>
+      </c>
+      <c r="B65" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C65" s="11">
         <v>614.584462685869</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" ht="32.05" customHeight="1">
-      <c r="A66" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="B66" s="9">
+      <c r="A66" s="9">
+        <v>251</v>
+      </c>
+      <c r="B66" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="C66" s="11">
         <v>367.599508684960</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" ht="32.05" customHeight="1">
-      <c r="A67" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="B67" s="9">
+      <c r="A67" s="9">
+        <v>252</v>
+      </c>
+      <c r="B67" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="C67" s="11">
         <v>240.2486257788</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" ht="32.05" customHeight="1">
-      <c r="A68" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="B68" s="9">
+      <c r="A68" s="9">
+        <v>253</v>
+      </c>
+      <c r="B68" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="C68" s="11">
         <v>610.507393449436</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" ht="32.05" customHeight="1">
-      <c r="A69" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="B69" s="9">
+      <c r="A69" s="9">
+        <v>254</v>
+      </c>
+      <c r="B69" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="C69" s="11">
         <v>0</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="B70" s="9">
+      <c r="A70" s="9">
+        <v>275</v>
+      </c>
+      <c r="B70" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="C70" s="11">
         <v>407.175349762215</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" ht="32.05" customHeight="1">
-      <c r="A71" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="B71" s="9">
+      <c r="A71" s="9">
+        <v>278</v>
+      </c>
+      <c r="B71" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="C71" s="11">
         <v>0</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" ht="32.05" customHeight="1">
-      <c r="A72" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="B72" s="9">
+      <c r="A72" s="9">
+        <v>279</v>
+      </c>
+      <c r="B72" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="C72" s="11">
         <v>274.690246726748</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" ht="32.05" customHeight="1">
-      <c r="A73" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="B73" s="9">
+      <c r="A73" s="9">
+        <v>280</v>
+      </c>
+      <c r="B73" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="C73" s="11">
         <v>453.605128340956</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="B74" s="9">
+      <c r="A74" s="9">
+        <v>284</v>
+      </c>
+      <c r="B74" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="C74" s="11">
         <v>423.820521019785</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="B75" s="9">
+      <c r="A75" s="9">
+        <v>286</v>
+      </c>
+      <c r="B75" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="C75" s="11">
         <v>436.365899085652</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="B76" s="9">
+      <c r="A76" s="9">
+        <v>289</v>
+      </c>
+      <c r="B76" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="C76" s="11">
         <v>623.6857487865381</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
     </row>
     <row r="77" ht="32.05" customHeight="1">
-      <c r="A77" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="B77" s="9">
+      <c r="A77" s="9">
+        <v>290</v>
+      </c>
+      <c r="B77" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="C77" s="11">
         <v>503.017553962909</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" ht="32.05" customHeight="1">
-      <c r="A78" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="B78" s="9">
+      <c r="A78" s="9">
+        <v>292</v>
+      </c>
+      <c r="B78" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="C78" s="11">
         <v>244.744869288020</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" ht="32.05" customHeight="1">
-      <c r="A79" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="B79" s="9">
+      <c r="A79" s="9">
+        <v>293</v>
+      </c>
+      <c r="B79" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="C79" s="11">
         <v>413.229694395160</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
     </row>
     <row r="80" ht="32.05" customHeight="1">
-      <c r="A80" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="B80" s="9">
+      <c r="A80" s="9">
+        <v>294</v>
+      </c>
+      <c r="B80" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="C80" s="11">
         <v>165.671955639101</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" ht="32.05" customHeight="1">
-      <c r="A81" t="s" s="8">
-        <v>78</v>
-      </c>
-      <c r="B81" s="9">
+      <c r="A81" s="9">
+        <v>295</v>
+      </c>
+      <c r="B81" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="C81" s="11">
         <v>277.633554138604</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
     </row>
     <row r="82" ht="32.05" customHeight="1">
-      <c r="A82" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="B82" s="9">
+      <c r="A82" s="9">
+        <v>460</v>
+      </c>
+      <c r="B82" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="C82" s="11">
         <v>139.274862982729</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
     </row>
     <row r="83" ht="32.05" customHeight="1">
-      <c r="A83" t="s" s="8">
-        <v>80</v>
-      </c>
-      <c r="B83" s="9">
+      <c r="A83" s="9">
+        <v>299</v>
+      </c>
+      <c r="B83" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="C83" s="11">
         <v>438.764101002040</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="8">
-        <v>81</v>
-      </c>
-      <c r="B84" s="9">
+      <c r="A84" s="9">
+        <v>302</v>
+      </c>
+      <c r="B84" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="C84" s="11">
         <v>523.190097902421</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="B85" s="9">
+      <c r="A85" s="9">
+        <v>303</v>
+      </c>
+      <c r="B85" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="C85" s="11">
         <v>289.643893590513</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="B86" s="9">
+      <c r="A86" s="9">
+        <v>304</v>
+      </c>
+      <c r="B86" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="C86" s="11">
         <v>184.567434249676</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="B87" s="9">
+      <c r="A87" s="9">
+        <v>305</v>
+      </c>
+      <c r="B87" t="s" s="10">
+        <v>85</v>
+      </c>
+      <c r="C87" s="11">
         <v>157.927149704546</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" ht="32.05" customHeight="1">
-      <c r="A88" t="s" s="8">
-        <v>85</v>
-      </c>
-      <c r="B88" s="9">
+      <c r="A88" s="9">
+        <v>306</v>
+      </c>
+      <c r="B88" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="C88" s="11">
         <v>329.824856839045</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" ht="32.05" customHeight="1">
-      <c r="A89" t="s" s="8">
-        <v>86</v>
-      </c>
-      <c r="B89" s="9">
+      <c r="A89" s="9">
+        <v>311</v>
+      </c>
+      <c r="B89" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="C89" s="11">
         <v>475.268362994338</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="B90" s="9">
+      <c r="A90" s="9">
+        <v>312</v>
+      </c>
+      <c r="B90" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="C90" s="11">
         <v>451.764870554983</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" ht="32.05" customHeight="1">
-      <c r="A91" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="B91" s="9">
+      <c r="A91" s="9">
+        <v>482</v>
+      </c>
+      <c r="B91" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="C91" s="11">
         <v>0</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
     </row>
     <row r="92" ht="44.05" customHeight="1">
-      <c r="A92" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="B92" s="9">
+      <c r="A92" s="9">
+        <v>487</v>
+      </c>
+      <c r="B92" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="C92" s="11">
         <v>587.031301518597</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
     </row>
     <row r="93" ht="32.05" customHeight="1">
-      <c r="A93" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="B93" s="9">
+      <c r="A93" s="9">
+        <v>494</v>
+      </c>
+      <c r="B93" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="C93" s="11">
         <v>395.529011757586</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" ht="32.05" customHeight="1">
-      <c r="A94" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="B94" s="9">
+      <c r="A94" s="9">
+        <v>513</v>
+      </c>
+      <c r="B94" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="C94" s="11">
         <v>173.241436991708</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" ht="32.05" customHeight="1">
-      <c r="A95" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="B95" s="9">
+      <c r="A95" s="9">
+        <v>519</v>
+      </c>
+      <c r="B95" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="C95" s="11">
         <v>370.735218898455</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="8">
-        <v>93</v>
-      </c>
-      <c r="B96" s="9">
+      <c r="A96" s="9">
+        <v>524</v>
+      </c>
+      <c r="B96" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="C96" s="11">
         <v>286.780583313485</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
     </row>
     <row r="97" ht="32.05" customHeight="1">
-      <c r="A97" t="s" s="8">
-        <v>94</v>
-      </c>
-      <c r="B97" s="9">
+      <c r="A97" s="9">
+        <v>532</v>
+      </c>
+      <c r="B97" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="C97" s="11">
         <v>376.816310128884</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="B98" s="9">
+      <c r="A98" s="9">
+        <v>533</v>
+      </c>
+      <c r="B98" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="C98" s="11">
         <v>394.664650632064</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="8">
-        <v>96</v>
-      </c>
-      <c r="B99" s="9">
+      <c r="A99" s="9">
+        <v>534</v>
+      </c>
+      <c r="B99" t="s" s="10">
+        <v>97</v>
+      </c>
+      <c r="C99" s="11">
         <v>667.284006991026</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="B100" s="9">
+      <c r="A100" s="9">
+        <v>537</v>
+      </c>
+      <c r="B100" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="C100" s="11">
         <v>420.970742992284</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" ht="32.05" customHeight="1">
-      <c r="A101" t="s" s="8">
-        <v>98</v>
-      </c>
-      <c r="B101" s="9">
+      <c r="A101" s="9">
+        <v>574</v>
+      </c>
+      <c r="B101" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="C101" s="11">
         <v>604.601137641067</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
     </row>
     <row r="102" ht="32.05" customHeight="1">
-      <c r="A102" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="B102" s="9">
+      <c r="A102" s="9">
+        <v>576</v>
+      </c>
+      <c r="B102" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="C102" s="11">
         <v>244.295704753581</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" t="s" s="8">
-        <v>100</v>
-      </c>
-      <c r="B103" s="9">
+      <c r="A103" s="9">
+        <v>577</v>
+      </c>
+      <c r="B103" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="C103" s="11">
         <v>0</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" t="s" s="8">
-        <v>101</v>
-      </c>
-      <c r="B104" s="9">
+      <c r="A104" s="9">
+        <v>584</v>
+      </c>
+      <c r="B104" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="C104" s="11">
         <v>593.133970814372</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="B105" s="9">
+      <c r="A105" s="9">
+        <v>585</v>
+      </c>
+      <c r="B105" t="s" s="10">
+        <v>103</v>
+      </c>
+      <c r="C105" s="11">
         <v>260.261971710173</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="B106" s="9">
+      <c r="A106" s="9">
+        <v>589</v>
+      </c>
+      <c r="B106" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="C106" s="11">
         <v>0</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="B107" s="9">
+      <c r="A107" s="9">
+        <v>591</v>
+      </c>
+      <c r="B107" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="C107" s="11">
         <v>272.982180823070</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="B108" s="9">
+      <c r="A108" s="9">
+        <v>592</v>
+      </c>
+      <c r="B108" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="C108" s="11">
         <v>0</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="B109" s="9">
+      <c r="A109" s="9">
+        <v>594</v>
+      </c>
+      <c r="B109" t="s" s="10">
+        <v>107</v>
+      </c>
+      <c r="C109" s="11">
         <v>162.976428867039</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="B110" s="9">
+      <c r="A110" s="9">
+        <v>598</v>
+      </c>
+      <c r="B110" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="C110" s="11">
         <v>0</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
     </row>
     <row r="111" ht="32.05" customHeight="1">
-      <c r="A111" t="s" s="8">
-        <v>108</v>
-      </c>
-      <c r="B111" s="9">
+      <c r="A111" s="9">
+        <v>599</v>
+      </c>
+      <c r="B111" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="C111" s="11">
         <v>615.860524841755</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="8">
-        <v>109</v>
-      </c>
-      <c r="B112" s="9">
+      <c r="A112" s="9">
+        <v>614</v>
+      </c>
+      <c r="B112" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="C112" s="11">
         <v>389.115816348979</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="B113" s="9">
+      <c r="A113" s="9">
+        <v>655</v>
+      </c>
+      <c r="B113" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="C113" s="11">
         <v>286.806420823176</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
     </row>
     <row r="114" ht="32.05" customHeight="1">
-      <c r="A114" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="B114" s="9">
+      <c r="A114" s="9">
+        <v>657</v>
+      </c>
+      <c r="B114" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="C114" s="11">
         <v>244.890302600150</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
     </row>
     <row r="115" ht="32.05" customHeight="1">
-      <c r="A115" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="B115" s="9">
+      <c r="A115" s="9">
+        <v>661</v>
+      </c>
+      <c r="B115" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="C115" s="11">
         <v>290.085335221832</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" t="s" s="8">
-        <v>113</v>
-      </c>
-      <c r="B116" s="9">
+      <c r="A116" s="9">
+        <v>663</v>
+      </c>
+      <c r="B116" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="C116" s="11">
         <v>386.608453758501</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" ht="32.05" customHeight="1">
-      <c r="A117" t="s" s="8">
-        <v>114</v>
-      </c>
-      <c r="B117" s="9">
+      <c r="A117" s="9">
+        <v>674</v>
+      </c>
+      <c r="B117" t="s" s="10">
+        <v>115</v>
+      </c>
+      <c r="C117" s="11">
         <v>531.744221339349</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="B118" s="9">
+      <c r="A118" s="9">
+        <v>679</v>
+      </c>
+      <c r="B118" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="C118" s="11">
         <v>617.813968757356</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
     </row>
     <row r="119" ht="32.05" customHeight="1">
-      <c r="A119" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="B119" s="9">
+      <c r="A119" s="9">
+        <v>680</v>
+      </c>
+      <c r="B119" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="C119" s="11">
         <v>0</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
     </row>
     <row r="120" ht="32.05" customHeight="1">
-      <c r="A120" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="B120" s="9">
+      <c r="A120" s="9">
+        <v>682</v>
+      </c>
+      <c r="B120" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="C120" s="11">
         <v>582.797775548660</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
     </row>
     <row r="121" ht="32.05" customHeight="1">
-      <c r="A121" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="B121" s="9">
+      <c r="A121" s="9">
+        <v>684</v>
+      </c>
+      <c r="B121" t="s" s="10">
+        <v>119</v>
+      </c>
+      <c r="C121" s="11">
         <v>420.906526485525</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
     </row>
     <row r="122" ht="32.05" customHeight="1">
-      <c r="A122" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="B122" s="9">
+      <c r="A122" s="9">
+        <v>690</v>
+      </c>
+      <c r="B122" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="C122" s="11">
         <v>281.673261276502</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
     </row>
     <row r="123" ht="32.05" customHeight="1">
-      <c r="A123" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="B123" s="9">
+      <c r="A123" s="9">
+        <v>691</v>
+      </c>
+      <c r="B123" t="s" s="10">
+        <v>121</v>
+      </c>
+      <c r="C123" s="11">
         <v>0</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
     </row>
     <row r="124" ht="32.05" customHeight="1">
-      <c r="A124" t="s" s="8">
-        <v>121</v>
-      </c>
-      <c r="B124" s="9">
+      <c r="A124" s="9">
+        <v>693</v>
+      </c>
+      <c r="B124" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="C124" s="11">
         <v>282.237971050486</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
-      <c r="A125" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="B125" s="9">
+      <c r="A125" s="9">
+        <v>694</v>
+      </c>
+      <c r="B125" t="s" s="10">
+        <v>123</v>
+      </c>
+      <c r="C125" s="11">
         <v>281.254399376908</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="B126" s="9">
+      <c r="A126" s="9">
+        <v>699</v>
+      </c>
+      <c r="B126" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="C126" s="11">
         <v>205.466286071878</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
-      <c r="A127" t="s" s="8">
-        <v>124</v>
-      </c>
-      <c r="B127" s="9">
+      <c r="A127" s="9">
+        <v>702</v>
+      </c>
+      <c r="B127" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="C127" s="11">
         <v>0</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
     </row>
     <row r="128" ht="32.05" customHeight="1">
-      <c r="A128" t="s" s="8">
-        <v>125</v>
-      </c>
-      <c r="B128" s="9">
+      <c r="A128" s="9">
+        <v>705</v>
+      </c>
+      <c r="B128" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="C128" s="11">
         <v>564.536142646215</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="B129" s="9">
+      <c r="A129" s="9">
+        <v>706</v>
+      </c>
+      <c r="B129" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="C129" s="11">
         <v>592.137132399923</v>
       </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" ht="32.05" customHeight="1">
-      <c r="A130" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="B130" s="9">
+      <c r="A130" s="9">
+        <v>718</v>
+      </c>
+      <c r="B130" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="C130" s="11">
         <v>0</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" ht="32.05" customHeight="1">
-      <c r="A131" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="B131" s="9">
+      <c r="A131" s="9">
+        <v>719</v>
+      </c>
+      <c r="B131" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="C131" s="11">
         <v>522.837001819628</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
     </row>
     <row r="132" ht="32.05" customHeight="1">
-      <c r="A132" t="s" s="8">
-        <v>129</v>
-      </c>
-      <c r="B132" s="9">
+      <c r="A132" s="9">
+        <v>720</v>
+      </c>
+      <c r="B132" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="C132" s="11">
         <v>248.037116806889</v>
       </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" t="s" s="8">
-        <v>130</v>
-      </c>
-      <c r="B133" s="9">
+      <c r="A133" s="9">
+        <v>722</v>
+      </c>
+      <c r="B133" t="s" s="10">
+        <v>131</v>
+      </c>
+      <c r="C133" s="11">
         <v>165.561774034028</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
     </row>
     <row r="134" ht="32.05" customHeight="1">
-      <c r="A134" t="s" s="8">
-        <v>131</v>
-      </c>
-      <c r="B134" s="9">
+      <c r="A134" s="9">
+        <v>736</v>
+      </c>
+      <c r="B134" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="C134" s="11">
         <v>585.550824863404</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
     </row>
     <row r="135" ht="32.05" customHeight="1">
-      <c r="A135" t="s" s="8">
-        <v>132</v>
-      </c>
-      <c r="B135" s="9">
+      <c r="A135" s="9">
+        <v>737</v>
+      </c>
+      <c r="B135" t="s" s="10">
+        <v>133</v>
+      </c>
+      <c r="C135" s="11">
         <v>213.901838889383</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
     </row>
     <row r="136" ht="32.05" customHeight="1">
-      <c r="A136" t="s" s="8">
-        <v>133</v>
-      </c>
-      <c r="B136" s="9">
+      <c r="A136" s="9">
+        <v>740</v>
+      </c>
+      <c r="B136" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="C136" s="11">
         <v>633.698545192293</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
     </row>
     <row r="137" ht="32.05" customHeight="1">
-      <c r="A137" t="s" s="8">
-        <v>134</v>
-      </c>
-      <c r="B137" s="9">
+      <c r="A137" s="9">
+        <v>741</v>
+      </c>
+      <c r="B137" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="C137" s="11">
         <v>479.590731723280</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
     </row>
     <row r="138" ht="20.05" customHeight="1">
-      <c r="A138" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="B138" s="9">
+      <c r="A138" s="9">
+        <v>744</v>
+      </c>
+      <c r="B138" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="C138" s="11">
         <v>530.091139043585</v>
       </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
-      <c r="A139" t="s" s="8">
-        <v>136</v>
-      </c>
-      <c r="B139" s="9">
+      <c r="A139" s="9">
+        <v>745</v>
+      </c>
+      <c r="B139" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="C139" s="11">
         <v>242.047710540420</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
     </row>
     <row r="140" ht="32.05" customHeight="1">
-      <c r="A140" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="B140" s="9">
+      <c r="A140" s="9">
+        <v>754</v>
+      </c>
+      <c r="B140" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="C140" s="11">
         <v>340.965423708575</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
     </row>
     <row r="141" ht="32.05" customHeight="1">
-      <c r="A141" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="B141" s="9">
+      <c r="A141" s="9">
+        <v>755</v>
+      </c>
+      <c r="B141" t="s" s="10">
+        <v>139</v>
+      </c>
+      <c r="C141" s="11">
         <v>293.438591987446</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
     </row>
     <row r="142" ht="20.05" customHeight="1">
-      <c r="A142" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="B142" s="9">
+      <c r="A142" s="9">
+        <v>756</v>
+      </c>
+      <c r="B142" t="s" s="10">
+        <v>140</v>
+      </c>
+      <c r="C142" s="11">
         <v>466.111132841752</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
     </row>
     <row r="143" ht="32.05" customHeight="1">
-      <c r="A143" t="s" s="8">
-        <v>140</v>
-      </c>
-      <c r="B143" s="9">
+      <c r="A143" s="9">
+        <v>764</v>
+      </c>
+      <c r="B143" t="s" s="10">
+        <v>141</v>
+      </c>
+      <c r="C143" s="11">
         <v>427.774677173243</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
     </row>
     <row r="144" ht="32.05" customHeight="1">
-      <c r="A144" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="B144" s="9">
+      <c r="A144" s="9">
+        <v>765</v>
+      </c>
+      <c r="B144" t="s" s="10">
+        <v>142</v>
+      </c>
+      <c r="C144" s="11">
         <v>212.296892850740</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
-      <c r="A145" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="B145" s="9">
+      <c r="A145" s="9">
+        <v>767</v>
+      </c>
+      <c r="B145" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="C145" s="11">
         <v>221.608894305451</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
-      <c r="A146" t="s" s="8">
-        <v>143</v>
-      </c>
-      <c r="B146" s="9">
+      <c r="A146" s="9">
+        <v>768</v>
+      </c>
+      <c r="B146" t="s" s="10">
+        <v>144</v>
+      </c>
+      <c r="C146" s="11">
         <v>621.562932681974</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
-      <c r="A147" t="s" s="8">
-        <v>144</v>
-      </c>
-      <c r="B147" s="9">
+      <c r="A147" s="9">
+        <v>781</v>
+      </c>
+      <c r="B147" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="C147" s="11">
         <v>578.478497286516</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
     </row>
     <row r="148" ht="32.05" customHeight="1">
-      <c r="A148" t="s" s="8">
-        <v>145</v>
-      </c>
-      <c r="B148" s="9">
+      <c r="A148" s="9">
+        <v>782</v>
+      </c>
+      <c r="B148" t="s" s="10">
+        <v>146</v>
+      </c>
+      <c r="C148" s="11">
         <v>591.930985781030</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" ht="32.05" customHeight="1">
-      <c r="A149" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="B149" s="9">
+      <c r="A149" s="9">
+        <v>783</v>
+      </c>
+      <c r="B149" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="C149" s="11">
         <v>191.478721801919</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
     </row>
     <row r="150" ht="20.05" customHeight="1">
-      <c r="A150" t="s" s="8">
-        <v>147</v>
-      </c>
-      <c r="B150" s="9">
+      <c r="A150" s="9">
+        <v>785</v>
+      </c>
+      <c r="B150" t="s" s="10">
+        <v>148</v>
+      </c>
+      <c r="C150" s="11">
         <v>0</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
     </row>
     <row r="151" ht="32.05" customHeight="1">
-      <c r="A151" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="B151" s="9">
+      <c r="A151" s="9">
+        <v>788</v>
+      </c>
+      <c r="B151" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="C151" s="11">
         <v>233.980127281013</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
-      <c r="A152" t="s" s="8">
-        <v>149</v>
-      </c>
-      <c r="B152" s="9">
+      <c r="A152" s="9">
+        <v>796</v>
+      </c>
+      <c r="B152" t="s" s="10">
+        <v>150</v>
+      </c>
+      <c r="C152" s="11">
         <v>564.735684317751</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
-      <c r="A153" t="s" s="8">
-        <v>150</v>
-      </c>
-      <c r="B153" s="9">
+      <c r="A153" s="9">
+        <v>800</v>
+      </c>
+      <c r="B153" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="C153" s="11">
         <v>137.929700111365</v>
       </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
-      <c r="A154" t="s" s="8">
-        <v>151</v>
-      </c>
-      <c r="B154" s="9">
+      <c r="A154" s="9">
+        <v>804</v>
+      </c>
+      <c r="B154" t="s" s="10">
+        <v>152</v>
+      </c>
+      <c r="C154" s="11">
         <v>549.398255819455</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155" ht="32.05" customHeight="1">
-      <c r="A155" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="B155" s="9">
+      <c r="A155" s="9">
+        <v>805</v>
+      </c>
+      <c r="B155" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="C155" s="11">
         <v>417.702831396498</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
     </row>
     <row r="156" ht="32.05" customHeight="1">
-      <c r="A156" t="s" s="8">
-        <v>153</v>
-      </c>
-      <c r="B156" s="9">
+      <c r="A156" s="9">
+        <v>807</v>
+      </c>
+      <c r="B156" t="s" s="10">
+        <v>154</v>
+      </c>
+      <c r="C156" s="11">
         <v>572.512292858204</v>
       </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
-      <c r="A157" t="s" s="8">
-        <v>154</v>
-      </c>
-      <c r="B157" s="9">
+      <c r="A157" s="9">
+        <v>809</v>
+      </c>
+      <c r="B157" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="C157" s="11">
         <v>196.512565403385</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
-      <c r="A158" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="B158" s="9">
+      <c r="A158" s="13">
+        <v>811</v>
+      </c>
+      <c r="B158" t="s" s="10">
+        <v>156</v>
+      </c>
+      <c r="C158" s="11">
         <v>332.582990571936</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
